--- a/05_Entregable 3/previo/Dominio de Valores/DdV_01_Fiscalía_Informe_estadistico_2025012322001116 FIscalia.xlsx
+++ b/05_Entregable 3/previo/Dominio de Valores/DdV_01_Fiscalía_Informe_estadistico_2025012322001116 FIscalia.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="d_ANIO_REGISTRO_BDD" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="d_MES_REGISTRO_BDD" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="d_MES_INCIDENTE_BDD" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="d_ARTICULO_BDD" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="d_DELITO_BDD" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="d_DELITO_CIRCUNSTANCIAL_BDD" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="d_ESTADO_PROCESAL_BDD" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="d_ETAPA_ACTUAL_BDD" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="d_PROVINCIA_INCIDENTE_BDD" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="d_CANTON_INCIDENTE_BDD" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="d_TIPO_DELITO_BDD" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="d_TIPO_FLAGRANTE_BDD" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="d_ESTADO_NDD_BDD" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="f_GRUPO_HORAINC_BDD" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="anio_registro_BDD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mes_registro_BDD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mes_incidente_BDD" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="articulo_BDD" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="delito_BDD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="delito_circunstancial_BDD" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estado_procesal_BDD" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="etapa_actual_BDD" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="provincia_incidente_BDD" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="canton_incidente_BDD" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="tipo_delito_BDD" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="tipo_flagrante_BDD" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="estado_ndd_BDD" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="grupo_horainc_BDD" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
